--- a/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
@@ -221,24 +221,9 @@
     <t>UPMA</t>
   </si>
   <si>
-    <t>Orden</t>
-  </si>
-  <si>
-    <t>Documento de respaldo del operativo</t>
-  </si>
-  <si>
     <t>Número de parte del operativo</t>
   </si>
   <si>
-    <t>Zona</t>
-  </si>
-  <si>
-    <t>Sub zona</t>
-  </si>
-  <si>
-    <t>Cantón</t>
-  </si>
-  <si>
     <t xml:space="preserve">DISTRITO </t>
   </si>
   <si>
@@ -248,27 +233,6 @@
     <t xml:space="preserve">SUBCIRCUITO </t>
   </si>
   <si>
-    <t>Código de subciruito</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
-    <t>Circuito</t>
-  </si>
-  <si>
-    <t>Subcircuito</t>
-  </si>
-  <si>
-    <t>Longitud</t>
-  </si>
-  <si>
-    <t>Dirección del operativo</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
     <t>Fecha del operativo</t>
   </si>
   <si>
@@ -300,6 +264,42 @@
   </si>
   <si>
     <t>No aplica</t>
+  </si>
+  <si>
+    <t>Orden de ingreso del operativo</t>
+  </si>
+  <si>
+    <t>Canal de registro del operativo</t>
+  </si>
+  <si>
+    <t>Nombre de la zona en la cual se realizó el operativo</t>
+  </si>
+  <si>
+    <t>Nombre de la subzona en la cual se realizó el operativo</t>
+  </si>
+  <si>
+    <t>Nombre del cantón en el cual se realizó el operativo</t>
+  </si>
+  <si>
+    <t>Código del subcircuito en el cual se realizó el operativo</t>
+  </si>
+  <si>
+    <t>Nombre del distrito en la cual se realizó el operativo</t>
+  </si>
+  <si>
+    <t>Nombre del circuito en la cual se realizó el operativo</t>
+  </si>
+  <si>
+    <t>Nombre del subcircuito en la cual se realizó el operativo</t>
+  </si>
+  <si>
+    <t>Coordenadas geográficas eje x - latitud</t>
+  </si>
+  <si>
+    <t>Coordenades geográficas eje y - longitud</t>
+  </si>
+  <si>
+    <t>Dirección donde se produjo el operativo de fauna silvestre</t>
   </si>
 </sst>
 </file>
@@ -395,17 +395,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1543,7 +1533,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,16 +1587,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -1615,16 +1605,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I3" s="6"/>
     </row>
@@ -1633,16 +1623,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1650,13 +1640,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1664,13 +1654,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1678,13 +1668,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1692,55 +1682,55 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1748,13 +1738,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1762,13 +1752,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1776,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1790,13 +1780,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1804,13 +1794,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,13 +1808,13 @@
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,13 +1822,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,13 +1836,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,13 +1850,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,17 +1896,17 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -1970,7 +1960,7 @@
     <protectedRange sqref="A39" name="Rango1_3_1_1_1_1_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
@@ -5,26 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo" sheetId="1" r:id="rId1"/>
     <sheet name="16_1_general" sheetId="2" r:id="rId2"/>
     <sheet name="16_1_diccionario" sheetId="3" r:id="rId3"/>
+    <sheet name="16_2_general" sheetId="4" r:id="rId4"/>
+    <sheet name="16_2_diccionario" sheetId="5" r:id="rId5"/>
+    <sheet name="16_3_general" sheetId="8" r:id="rId6"/>
+    <sheet name="16_3_diccionario" sheetId="9" r:id="rId7"/>
+    <sheet name="16_4_general" sheetId="6" r:id="rId8"/>
+    <sheet name="16_4_diccionario" sheetId="7" r:id="rId9"/>
+    <sheet name="16_5_general" sheetId="10" r:id="rId10"/>
+    <sheet name="16_5_diccionario" sheetId="11" r:id="rId11"/>
+    <sheet name="16_6_general" sheetId="12" r:id="rId12"/>
+    <sheet name="16_6_diccionario" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comparativo!$A$1:$H$36</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="192">
   <si>
     <t>variables</t>
   </si>
@@ -233,15 +243,6 @@
     <t xml:space="preserve">SUBCIRCUITO </t>
   </si>
   <si>
-    <t>Fecha del operativo</t>
-  </si>
-  <si>
-    <t>Unidad específica que realiza el operativo</t>
-  </si>
-  <si>
-    <t>Tipo de operativo</t>
-  </si>
-  <si>
     <t>Cantidad de fauna silvestre rescatada</t>
   </si>
   <si>
@@ -300,13 +301,322 @@
   </si>
   <si>
     <t>Dirección donde se produjo el operativo de fauna silvestre</t>
+  </si>
+  <si>
+    <t>Fecha en la que se realizó el rescate</t>
+  </si>
+  <si>
+    <t>Unidad de UPMA que realiza el rescate</t>
+  </si>
+  <si>
+    <t>Tipo de operativo ordinario o extraordinario</t>
+  </si>
+  <si>
+    <t>Distribución Político Administrativa del Ecuador</t>
+  </si>
+  <si>
+    <t>Niveles administrativos de planificación desarrollados por SNP</t>
+  </si>
+  <si>
+    <t>Zona, Sub zona, Código subcircuito, Distrito, Circuito</t>
+  </si>
+  <si>
+    <t>Longitud latitud</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Identificación</t>
+  </si>
+  <si>
+    <t>Localización</t>
+  </si>
+  <si>
+    <t>Geolocalización</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>PARTE WEB</t>
+  </si>
+  <si>
+    <t>UPMA ESMERALDAS</t>
+  </si>
+  <si>
+    <t>FAUNA SILVESTRE RESCATADA</t>
+  </si>
+  <si>
+    <t>MAMIFERO</t>
+  </si>
+  <si>
+    <t>ZONA 1</t>
+  </si>
+  <si>
+    <t>ESMERALDAS</t>
+  </si>
+  <si>
+    <t>QUININDE</t>
+  </si>
+  <si>
+    <t>08D04C08S01</t>
+  </si>
+  <si>
+    <t>LA UNION</t>
+  </si>
+  <si>
+    <t>LA UNION 1</t>
+  </si>
+  <si>
+    <t>CONTROL FIJO MARUJITA</t>
+  </si>
+  <si>
+    <t>0.24644977991942543</t>
+  </si>
+  <si>
+    <t>UNIDADES</t>
+  </si>
+  <si>
+    <t>UPMACP147827908</t>
+  </si>
+  <si>
+    <t>A1:W3022</t>
+  </si>
+  <si>
+    <t>A1:AE3395</t>
+  </si>
+  <si>
+    <t>RESPONSABLE DEL OPERATIVO</t>
+  </si>
+  <si>
+    <t>Fecha en que se realizó el operativo</t>
+  </si>
+  <si>
+    <t>Tipo de operativo ordinario o extraordinari</t>
+  </si>
+  <si>
+    <t>Hora de inicio del operativo</t>
+  </si>
+  <si>
+    <t>Hora de fin del operativo</t>
+  </si>
+  <si>
+    <t>Persona responsable del operativo</t>
+  </si>
+  <si>
+    <t>Familia a la que pertenece la vida silvestre rescatada</t>
+  </si>
+  <si>
+    <t>Tipo de vida silvestre rescatada</t>
+  </si>
+  <si>
+    <t>Tipo de vida silvestre rescatada si hay más de una</t>
+  </si>
+  <si>
+    <t>Fecha de operativo y hora de operativo</t>
+  </si>
+  <si>
+    <t>Sub categoría tipo I y tipo II</t>
+  </si>
+  <si>
+    <t>2022012003322687102</t>
+  </si>
+  <si>
+    <t>08D04C03S02</t>
+  </si>
+  <si>
+    <t>QUININDE 2</t>
+  </si>
+  <si>
+    <t>24 DE MAYO- VERSALLES Y VERGELES</t>
+  </si>
+  <si>
+    <t>EXTRAORDINARIO</t>
+  </si>
+  <si>
+    <t>CARNE DE FAUNA SILVESTRE RETENIDA</t>
+  </si>
+  <si>
+    <t>GUANTA</t>
+  </si>
+  <si>
+    <t>ARMADILLO</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>SBTE. RUANO ROSERO CRISTOBAL</t>
+  </si>
+  <si>
+    <t>SGOS. NARVAEZ QUIMBITA JOSE</t>
+  </si>
+  <si>
+    <t>CBOP. CASTILLO PORTOCARRERO LEDHER</t>
+  </si>
+  <si>
+    <t>CBOS. TORRES CHILA KATHERINE</t>
+  </si>
+  <si>
+    <t>CBOS. BASANTES OROSCO CRISTHIAN</t>
+  </si>
+  <si>
+    <t>CBOS. CALLE FREIRE HENRY</t>
+  </si>
+  <si>
+    <t>CBOS. CALVOPIÑA QUIÑONEZ ANGEL</t>
+  </si>
+  <si>
+    <t>*2020091609013514007</t>
+  </si>
+  <si>
+    <t>SAN LORENZO</t>
+  </si>
+  <si>
+    <t>08D05C02S02</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>URBINA 2</t>
+  </si>
+  <si>
+    <t>VIA A SAN LORENZO/ALTO TAMBO</t>
+  </si>
+  <si>
+    <t>REPTIL</t>
+  </si>
+  <si>
+    <t>TORTUGA</t>
+  </si>
+  <si>
+    <t>GECCO</t>
+  </si>
+  <si>
+    <t>A1:W4006</t>
+  </si>
+  <si>
+    <t>2021070309582258808</t>
+  </si>
+  <si>
+    <t>ELOY ALFARO</t>
+  </si>
+  <si>
+    <t>08D02C02S02</t>
+  </si>
+  <si>
+    <t>ELOY ALFARO-ESMERALDAS</t>
+  </si>
+  <si>
+    <t>ANCHAYACU</t>
+  </si>
+  <si>
+    <t>ANCHAYACU 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA 106 RECINTO LA FERIA/REFUGIO DE VIDA SILVESTRE PAMBILAR </t>
+  </si>
+  <si>
+    <t>UPAMB ESMERALDAS</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>09:58</t>
+  </si>
+  <si>
+    <t>CARNE</t>
+  </si>
+  <si>
+    <t>SAHINO</t>
+  </si>
+  <si>
+    <t>Fecha en que se  realizó el operativo</t>
+  </si>
+  <si>
+    <t>2023040405071868012</t>
+  </si>
+  <si>
+    <t>SUCUMBIOS</t>
+  </si>
+  <si>
+    <t>LAGO AGRIO</t>
+  </si>
+  <si>
+    <t>21D02C04S01</t>
+  </si>
+  <si>
+    <t>LAS PALMERAS</t>
+  </si>
+  <si>
+    <t>LAS PALMERAS 1</t>
+  </si>
+  <si>
+    <t>COLEGIO ABI AYALA</t>
+  </si>
+  <si>
+    <t>UPMA SUCUMBIOS</t>
+  </si>
+  <si>
+    <t>APREHENDIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTELO </t>
+  </si>
+  <si>
+    <t>A1:X3164</t>
+  </si>
+  <si>
+    <t>A1:X3095</t>
+  </si>
+  <si>
+    <t>Fecha en que se realizaó el operativo</t>
+  </si>
+  <si>
+    <t>2024091007435125202</t>
+  </si>
+  <si>
+    <t>05D01C09S01</t>
+  </si>
+  <si>
+    <t>VICTORIA VASCONEZ CUVI Y MANUELA</t>
+  </si>
+  <si>
+    <t>UPMA DMQ</t>
+  </si>
+  <si>
+    <t>AVE</t>
+  </si>
+  <si>
+    <t>PERICO COLIVERDE</t>
+  </si>
+  <si>
+    <t>PERICO ESMERALDA</t>
+  </si>
+  <si>
+    <t>ZONA 3</t>
+  </si>
+  <si>
+    <t>COTOPAXI</t>
+  </si>
+  <si>
+    <t>LATACUNGA</t>
+  </si>
+  <si>
+    <t>SAN CARLOS</t>
+  </si>
+  <si>
+    <t>SAN CARLOS 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -315,7 +625,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -323,13 +632,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -345,12 +649,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -358,37 +662,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,6 +1739,1616 @@
   <autoFilter ref="A1:H36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>0.14590130000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-76.878917700000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29"/>
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30"/>
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31"/>
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32"/>
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33"/>
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35"/>
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>-0.94476987124075795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-78.610455470991198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29"/>
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30"/>
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31"/>
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32"/>
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33"/>
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35"/>
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36"/>
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1532,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +3444,7 @@
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1587,36 +3485,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1626,13 +3534,19 @@
         <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1640,13 +3554,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1654,13 +3580,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1668,13 +3606,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1682,13 +3629,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1696,13 +3655,25 @@
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1710,13 +3681,25 @@
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1724,13 +3707,25 @@
         <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1738,13 +3733,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1752,13 +3756,25 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1766,13 +3782,25 @@
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-79444899226349</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1780,13 +3808,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <v>43467</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1794,174 +3831,2891 @@
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>72</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25"/>
+      <c r="G25" s="4"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29"/>
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30"/>
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31"/>
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32"/>
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33"/>
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35"/>
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36"/>
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37"/>
+      <c r="G37" s="4"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38"/>
+      <c r="G38" s="4"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39"/>
+      <c r="G39" s="4"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40"/>
+      <c r="G40" s="4"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41"/>
+      <c r="G41" s="4"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42"/>
+      <c r="G42" s="4"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43"/>
+      <c r="G43" s="4"/>
+      <c r="H43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>0.91247652184898798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-78.545250891391404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.65972222222222221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.87569444444444444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25"/>
+      <c r="G25" s="4"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29"/>
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30"/>
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31"/>
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32"/>
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33"/>
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35"/>
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36"/>
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37"/>
+      <c r="G37" s="4"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38"/>
+      <c r="G38" s="4"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39"/>
+      <c r="G39" s="4"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40"/>
+      <c r="G40" s="4"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41"/>
+      <c r="G41" s="4"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42"/>
+      <c r="G42" s="4"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43"/>
+      <c r="G43" s="4"/>
+      <c r="H43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>0.87904342401061197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-79.077787399292006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,2,FALSE)</f>
+        <v>Unidad de medida de la cantidad de fauna silvestre rescatada</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,3,FALSE)</f>
+        <v>Categórica</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,4,FALSE)</f>
+        <v>No aplica</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,5,FALSE)</f>
+        <v>No aplica</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="str">
+        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,8,FALSE)</f>
+        <v>Evento</v>
+      </c>
+      <c r="I25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29"/>
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30"/>
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31"/>
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32"/>
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33"/>
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35"/>
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36"/>
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37"/>
+      <c r="G37" s="4"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38"/>
+      <c r="G38" s="4"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39"/>
+      <c r="G39" s="4"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40"/>
+      <c r="G40" s="4"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41"/>
+      <c r="G41" s="4"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42"/>
+      <c r="G42" s="4"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43"/>
+      <c r="G43" s="4"/>
+      <c r="H43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>0.92865275142342796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-79.674552083015399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.64722222222222225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="D26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33"/>
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35"/>
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36"/>
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37"/>
+      <c r="G37" s="4"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38"/>
+      <c r="G38" s="4"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39"/>
+      <c r="G39" s="4"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40"/>
+      <c r="G40" s="4"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41"/>
+      <c r="G41" s="4"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42"/>
+      <c r="G42" s="4"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43"/>
+      <c r="G43" s="4"/>
+      <c r="H43"/>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="A28 A30:A34" name="Rango1_3_1_8"/>
-    <protectedRange sqref="A39" name="Rango1_3_1_1_1_1_1"/>
-  </protectedRanges>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="197">
   <si>
     <t>variables</t>
   </si>
@@ -610,6 +610,21 @@
   </si>
   <si>
     <t>SAN CARLOS 1</t>
+  </si>
+  <si>
+    <t>Es un número de 1 hasta el número de casos</t>
+  </si>
+  <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
+  </si>
+  <si>
+    <t>Se debe especificar en que tipo de proyección se encuentra</t>
+  </si>
+  <si>
+    <t>Debe cumplir con un formato establecido</t>
+  </si>
+  <si>
+    <t>Cantidad, Medida</t>
   </si>
 </sst>
 </file>
@@ -640,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +665,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -679,22 +718,15 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1820,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,6 +1918,10 @@
       <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>96</v>
       </c>
@@ -1909,6 +1945,8 @@
       <c r="E3" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4" t="s">
         <v>96</v>
       </c>
@@ -1932,6 +1970,10 @@
       <c r="E4" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>97</v>
       </c>
@@ -1958,6 +2000,7 @@
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
         <v>98</v>
       </c>
@@ -1984,6 +2027,7 @@
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
         <v>98</v>
       </c>
@@ -2007,6 +2051,7 @@
       <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="4" t="s">
         <v>98</v>
       </c>
@@ -2033,6 +2078,7 @@
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
@@ -2059,7 +2105,7 @@
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="4" t="s">
         <v>98</v>
       </c>
@@ -2086,7 +2132,7 @@
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="4" t="s">
         <v>98</v>
       </c>
@@ -2113,7 +2159,7 @@
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="4" t="s">
         <v>98</v>
       </c>
@@ -2137,8 +2183,8 @@
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
         <v>98</v>
       </c>
@@ -2165,7 +2211,9 @@
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>99</v>
       </c>
@@ -2192,7 +2240,9 @@
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
@@ -2219,7 +2269,9 @@
       <c r="F15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
@@ -2243,8 +2295,8 @@
       <c r="E16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
         <v>100</v>
       </c>
@@ -2268,8 +2320,8 @@
       <c r="E17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
         <v>100</v>
       </c>
@@ -2296,7 +2348,9 @@
       <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>100</v>
       </c>
@@ -2323,7 +2377,9 @@
       <c r="F19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>100</v>
       </c>
@@ -2347,8 +2403,10 @@
       <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
@@ -2369,9 +2427,9 @@
       <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
@@ -2392,11 +2450,11 @@
       <c r="D22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
@@ -2417,11 +2475,11 @@
       <c r="D23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
@@ -2442,11 +2500,11 @@
       <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
@@ -2470,8 +2528,10 @@
       <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="4" t="s">
         <v>100</v>
       </c>
@@ -2622,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,6 +2748,10 @@
       <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>96</v>
       </c>
@@ -2711,6 +2775,8 @@
       <c r="E3" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4" t="s">
         <v>96</v>
       </c>
@@ -2734,6 +2800,10 @@
       <c r="E4" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>97</v>
       </c>
@@ -2760,6 +2830,7 @@
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
         <v>98</v>
       </c>
@@ -2786,6 +2857,7 @@
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
         <v>98</v>
       </c>
@@ -2809,6 +2881,7 @@
       <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="4" t="s">
         <v>98</v>
       </c>
@@ -2835,6 +2908,7 @@
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
@@ -2861,7 +2935,7 @@
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="4" t="s">
         <v>98</v>
       </c>
@@ -2888,7 +2962,7 @@
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="4" t="s">
         <v>98</v>
       </c>
@@ -2915,7 +2989,7 @@
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="4" t="s">
         <v>98</v>
       </c>
@@ -2939,8 +3013,8 @@
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
         <v>98</v>
       </c>
@@ -2958,7 +3032,7 @@
       <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2967,7 +3041,9 @@
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>99</v>
       </c>
@@ -2985,7 +3061,7 @@
       <c r="C14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2994,7 +3070,9 @@
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
@@ -3021,7 +3099,9 @@
       <c r="F15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
@@ -3045,8 +3125,8 @@
       <c r="E16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
         <v>100</v>
       </c>
@@ -3070,8 +3150,8 @@
       <c r="E17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
         <v>100</v>
       </c>
@@ -3098,7 +3178,9 @@
       <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>100</v>
       </c>
@@ -3125,7 +3207,9 @@
       <c r="F19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>100</v>
       </c>
@@ -3149,8 +3233,10 @@
       <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
@@ -3171,9 +3257,9 @@
       <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
@@ -3194,11 +3280,11 @@
       <c r="D22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
@@ -3219,11 +3305,11 @@
       <c r="D23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
@@ -3244,11 +3330,11 @@
       <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
@@ -3272,8 +3358,10 @@
       <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="4" t="s">
         <v>100</v>
       </c>
@@ -3430,8 +3518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,6 +3584,10 @@
       <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>96</v>
       </c>
@@ -3519,6 +3611,8 @@
       <c r="E3" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4" t="s">
         <v>96</v>
       </c>
@@ -3542,6 +3636,10 @@
       <c r="E4" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>97</v>
       </c>
@@ -3568,6 +3666,7 @@
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
         <v>98</v>
       </c>
@@ -3594,6 +3693,7 @@
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
         <v>98</v>
       </c>
@@ -3617,6 +3717,7 @@
       <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="4" t="s">
         <v>98</v>
       </c>
@@ -3643,6 +3744,7 @@
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
@@ -3669,6 +3771,7 @@
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="4" t="s">
         <v>98</v>
       </c>
@@ -3695,6 +3798,7 @@
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="4" t="s">
         <v>98</v>
       </c>
@@ -3721,6 +3825,7 @@
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="4" t="s">
         <v>98</v>
       </c>
@@ -3744,6 +3849,8 @@
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
         <v>98</v>
       </c>
@@ -3770,6 +3877,9 @@
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>99</v>
       </c>
@@ -3796,6 +3906,9 @@
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
@@ -3819,6 +3932,10 @@
       <c r="E15" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
@@ -3839,6 +3956,9 @@
       <c r="D16" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
         <v>100</v>
       </c>
@@ -3862,6 +3982,8 @@
       <c r="E17" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
         <v>100</v>
       </c>
@@ -3885,6 +4007,10 @@
       <c r="E18" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="4" t="s">
         <v>100</v>
       </c>
@@ -3905,7 +4031,9 @@
       <c r="D19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="4" t="s">
         <v>100</v>
       </c>
@@ -3929,6 +4057,10 @@
       <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
@@ -4133,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,6 +4331,10 @@
       <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>96</v>
       </c>
@@ -4222,6 +4358,8 @@
       <c r="E3" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4" t="s">
         <v>96</v>
       </c>
@@ -4245,6 +4383,10 @@
       <c r="E4" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>97</v>
       </c>
@@ -4271,6 +4413,7 @@
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
         <v>98</v>
       </c>
@@ -4297,6 +4440,7 @@
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
         <v>98</v>
       </c>
@@ -4320,6 +4464,7 @@
       <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="4" t="s">
         <v>98</v>
       </c>
@@ -4346,6 +4491,7 @@
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
@@ -4372,7 +4518,7 @@
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="4" t="s">
         <v>98</v>
       </c>
@@ -4399,7 +4545,7 @@
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="4" t="s">
         <v>98</v>
       </c>
@@ -4426,7 +4572,7 @@
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="4" t="s">
         <v>98</v>
       </c>
@@ -4450,8 +4596,8 @@
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
         <v>98</v>
       </c>
@@ -4478,7 +4624,9 @@
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>99</v>
       </c>
@@ -4505,7 +4653,9 @@
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
@@ -4532,7 +4682,9 @@
       <c r="F15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
@@ -4556,8 +4708,8 @@
       <c r="E16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
         <v>100</v>
       </c>
@@ -4584,7 +4736,9 @@
       <c r="F17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H17" s="4" t="s">
         <v>100</v>
       </c>
@@ -4611,7 +4765,9 @@
       <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>100</v>
       </c>
@@ -4635,8 +4791,10 @@
       <c r="E19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="4" t="s">
         <v>100</v>
       </c>
@@ -4657,9 +4815,9 @@
       <c r="D20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
@@ -4680,11 +4838,11 @@
       <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
@@ -4705,11 +4863,11 @@
       <c r="D22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
@@ -4730,11 +4888,11 @@
       <c r="D23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
@@ -4758,8 +4916,10 @@
       <c r="E24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
@@ -4964,8 +5124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5030,6 +5190,10 @@
       <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>96</v>
       </c>
@@ -5053,6 +5217,8 @@
       <c r="E3" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4" t="s">
         <v>96</v>
       </c>
@@ -5076,6 +5242,10 @@
       <c r="E4" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>97</v>
       </c>
@@ -5102,6 +5272,7 @@
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
         <v>98</v>
       </c>
@@ -5128,6 +5299,7 @@
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
         <v>98</v>
       </c>
@@ -5151,6 +5323,7 @@
       <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="4" t="s">
         <v>98</v>
       </c>
@@ -5177,6 +5350,7 @@
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
@@ -5203,7 +5377,7 @@
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="4" t="s">
         <v>98</v>
       </c>
@@ -5230,7 +5404,7 @@
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="4" t="s">
         <v>98</v>
       </c>
@@ -5257,7 +5431,7 @@
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="4" t="s">
         <v>98</v>
       </c>
@@ -5281,8 +5455,8 @@
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
         <v>98</v>
       </c>
@@ -5309,7 +5483,9 @@
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>99</v>
       </c>
@@ -5336,7 +5512,9 @@
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
@@ -5363,7 +5541,9 @@
       <c r="F15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
@@ -5387,8 +5567,8 @@
       <c r="E16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
         <v>100</v>
       </c>
@@ -5412,8 +5592,8 @@
       <c r="E17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
         <v>100</v>
       </c>
@@ -5440,7 +5620,9 @@
       <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>100</v>
       </c>
@@ -5467,7 +5649,9 @@
       <c r="F19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>100</v>
       </c>
@@ -5491,8 +5675,10 @@
       <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
@@ -5513,9 +5699,9 @@
       <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
@@ -5536,11 +5722,11 @@
       <c r="D22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
@@ -5561,11 +5747,11 @@
       <c r="D23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
@@ -5586,11 +5772,11 @@
       <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
@@ -5599,28 +5785,31 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B25" s="4" t="str">
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,2,FALSE)</f>
+        <v>Unidad de medida de la cantidad de fauna silvestre rescatada</v>
+      </c>
       <c r="C25" s="4" t="str">
-        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,2,FALSE)</f>
-        <v>Unidad de medida de la cantidad de fauna silvestre rescatada</v>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,3,FALSE)</f>
+        <v>Categórica</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,3,FALSE)</f>
-        <v>Categórica</v>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,4,FALSE)</f>
+        <v>No aplica</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,4,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,5,FALSE)</f>
         <v>No aplica</v>
       </c>
-      <c r="F25" s="4" t="str">
-        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,5,FALSE)</f>
-        <v>No aplica</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="4" t="str">
-        <f>VLOOKUP(B25,'16_4_diccionario'!$A:$H,8,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,8,FALSE)</f>
         <v>Evento</v>
       </c>
       <c r="I25" t="s">
@@ -5818,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,6 +6073,10 @@
       <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>96</v>
       </c>
@@ -5907,6 +6100,8 @@
       <c r="E3" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4" t="s">
         <v>96</v>
       </c>
@@ -5930,6 +6125,10 @@
       <c r="E4" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>97</v>
       </c>
@@ -5956,6 +6155,7 @@
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="4" t="s">
         <v>98</v>
       </c>
@@ -5982,6 +6182,7 @@
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="4" t="s">
         <v>98</v>
       </c>
@@ -6005,6 +6206,7 @@
       <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="4" t="s">
         <v>98</v>
       </c>
@@ -6031,6 +6233,7 @@
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
@@ -6057,7 +6260,7 @@
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="4" t="s">
         <v>98</v>
       </c>
@@ -6084,7 +6287,7 @@
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="4" t="s">
         <v>98</v>
       </c>
@@ -6111,7 +6314,7 @@
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="4" t="s">
         <v>98</v>
       </c>
@@ -6135,8 +6338,8 @@
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
         <v>98</v>
       </c>
@@ -6163,7 +6366,9 @@
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>99</v>
       </c>
@@ -6190,7 +6395,9 @@
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
@@ -6217,7 +6424,9 @@
       <c r="F15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
@@ -6241,8 +6450,8 @@
       <c r="E16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
         <v>100</v>
       </c>
@@ -6266,8 +6475,8 @@
       <c r="E17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
         <v>100</v>
       </c>
@@ -6294,7 +6503,9 @@
       <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>100</v>
       </c>
@@ -6321,7 +6532,9 @@
       <c r="F19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>100</v>
       </c>
@@ -6345,8 +6558,10 @@
       <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="4" t="s">
         <v>100</v>
       </c>
@@ -6367,9 +6582,9 @@
       <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="4" t="s">
         <v>100</v>
       </c>
@@ -6390,10 +6605,11 @@
       <c r="D22" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
@@ -6414,10 +6630,11 @@
       <c r="D23" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="4" t="s">
         <v>100</v>
       </c>
@@ -6438,10 +6655,11 @@
       <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="4" t="s">
         <v>100</v>
       </c>
@@ -6465,8 +6683,10 @@
       <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="4" t="s">
         <v>100</v>
       </c>
@@ -6490,8 +6710,8 @@
       <c r="E26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="4" t="s">
         <v>100</v>
       </c>
@@ -6515,8 +6735,8 @@
       <c r="E27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="4" t="s">
         <v>100</v>
       </c>
@@ -6540,8 +6760,8 @@
       <c r="E28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="4" t="s">
         <v>100</v>
       </c>
@@ -6565,8 +6785,8 @@
       <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="4" t="s">
         <v>100</v>
       </c>
@@ -6590,8 +6810,8 @@
       <c r="E30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="4" t="s">
         <v>100</v>
       </c>
@@ -6615,8 +6835,8 @@
       <c r="E31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="4" t="s">
         <v>100</v>
       </c>
@@ -6640,8 +6860,8 @@
       <c r="E32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="4" t="s">
         <v>100</v>
       </c>

--- a/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="189">
   <si>
     <t>variables</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Fuente de Datos</t>
   </si>
   <si>
-    <t>Relaciones</t>
-  </si>
-  <si>
-    <t>Reglas de Calidad</t>
-  </si>
-  <si>
     <t>Clasificación</t>
   </si>
   <si>
@@ -318,12 +312,6 @@
     <t>Niveles administrativos de planificación desarrollados por SNP</t>
   </si>
   <si>
-    <t>Zona, Sub zona, Código subcircuito, Distrito, Circuito</t>
-  </si>
-  <si>
-    <t>Longitud latitud</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -414,12 +402,6 @@
     <t>Tipo de vida silvestre rescatada si hay más de una</t>
   </si>
   <si>
-    <t>Fecha de operativo y hora de operativo</t>
-  </si>
-  <si>
-    <t>Sub categoría tipo I y tipo II</t>
-  </si>
-  <si>
     <t>2022012003322687102</t>
   </si>
   <si>
@@ -612,19 +594,13 @@
     <t>SAN CARLOS 1</t>
   </si>
   <si>
-    <t>Es un número de 1 hasta el número de casos</t>
-  </si>
-  <si>
-    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
-  </si>
-  <si>
-    <t>Se debe especificar en que tipo de proyección se encuentra</t>
-  </si>
-  <si>
-    <t>Debe cumplir con un formato establecido</t>
-  </si>
-  <si>
-    <t>Cantidad, Medida</t>
+    <t>Clasificación interna UPMA</t>
+  </si>
+  <si>
+    <t>Puede ser individuos, masa o volumen</t>
+  </si>
+  <si>
+    <t>No se especifica las unidades de medida de las coordenadas</t>
   </si>
 </sst>
 </file>
@@ -655,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,18 +647,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,8 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1792,7 +1754,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1783,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1791,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,14 +1825,12 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1886,718 +1846,618 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="5">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="5">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13">
+      <c r="G13">
         <v>0.14590130000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="7">
         <v>-76.878917700000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1">
         <v>45020</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="9">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="9">
+        <v>96</v>
+      </c>
+      <c r="G19" s="9">
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="G26" s="4"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="G27" s="4"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="G28" s="4"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="G29" s="4"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="G30" s="4"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="G31" s="4"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="G32" s="4"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="G33" s="4"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="G34" s="4"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="G35" s="4"/>
-      <c r="H35"/>
+      <c r="F35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2622,7 +2482,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2651,7 +2511,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2659,7 +2519,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,14 +2553,12 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -2716,724 +2574,623 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="5">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="5">
         <v>2934</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13">
+      <c r="G13">
         <v>-0.94476987124075795</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="7">
         <v>-78.610455470991198</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1">
         <v>45545</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="9">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="9">
+        <v>96</v>
+      </c>
+      <c r="G19" s="9">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20">
+        <v>96</v>
+      </c>
+      <c r="G20">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="G26" s="4"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="G27" s="4"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="G28" s="4"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="G29" s="4"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="G30" s="4"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="G31" s="4"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="G32" s="4"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="G33" s="4"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="G34" s="4"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="G35" s="4"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="G36" s="4"/>
-      <c r="H36"/>
+      <c r="F36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3458,7 +3215,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3487,7 +3244,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3495,7 +3252,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,14 +3286,12 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -3552,635 +3307,556 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="5">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="7">
         <v>-79444899226349</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1">
+        <v>74</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1">
         <v>43467</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25"/>
-      <c r="G25" s="4"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="G26" s="4"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="G27" s="4"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="G28" s="4"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="G29" s="4"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="G30" s="4"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="G31" s="4"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="G32" s="4"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="G33" s="4"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="G34" s="4"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="G35" s="4"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="G36" s="4"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37"/>
-      <c r="G37" s="4"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38"/>
-      <c r="G38" s="4"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39"/>
-      <c r="G39" s="4"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40"/>
-      <c r="G40" s="4"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41"/>
-      <c r="G41" s="4"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42"/>
-      <c r="G42" s="4"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43"/>
-      <c r="G43" s="4"/>
-      <c r="H43"/>
+      <c r="F43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4205,7 +3881,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4234,7 +3910,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4242,7 +3918,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,10 +3939,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,14 +3952,12 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -4299,747 +3973,640 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="5">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13">
+      <c r="G13">
         <v>0.91247652184898798</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="7">
         <v>-78.545250891391404</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1">
         <v>44090</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="9">
+        <v>96</v>
+      </c>
+      <c r="G17" s="9">
         <v>0.65972222222222221</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="9">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9">
         <v>0.87569444444444444</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19">
+        <v>96</v>
+      </c>
+      <c r="G19">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25"/>
-      <c r="G25" s="4"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="G26" s="4"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="G27" s="4"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="G28" s="4"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="G29" s="4"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="G30" s="4"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="G31" s="4"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="G32" s="4"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="G33" s="4"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="G34" s="4"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="G35" s="4"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="G36" s="4"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37"/>
-      <c r="G37" s="4"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38"/>
-      <c r="G38" s="4"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39"/>
-      <c r="G39" s="4"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40"/>
-      <c r="G40" s="4"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41"/>
-      <c r="G41" s="4"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42"/>
-      <c r="G42" s="4"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43"/>
-      <c r="G43" s="4"/>
-      <c r="H43"/>
+      <c r="F43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5064,7 +4631,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5093,7 +4660,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5101,7 +4668,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5122,10 +4689,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5135,14 +4702,12 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -5158,771 +4723,663 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="5">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13">
+      <c r="G13">
         <v>0.87904342401061197</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="7">
         <v>-79.077787399292006</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1">
         <v>44379</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20">
+        <v>96</v>
+      </c>
+      <c r="G20">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,2,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,2,FALSE)</f>
         <v>Unidad de medida de la cantidad de fauna silvestre rescatada</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,3,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,3,FALSE)</f>
         <v>Categórica</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,4,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,4,FALSE)</f>
         <v>No aplica</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,5,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,5,FALSE)</f>
         <v>No aplica</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,8,FALSE)</f>
-        <v>Evento</v>
-      </c>
-      <c r="I25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="e">
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,8,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="G26" s="4"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="G27" s="4"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="G28" s="4"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="G29" s="4"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="G30" s="4"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="G31" s="4"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="G32" s="4"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="G33" s="4"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="G34" s="4"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="G35" s="4"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="G36" s="4"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37"/>
-      <c r="G37" s="4"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38"/>
-      <c r="G38" s="4"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39"/>
-      <c r="G39" s="4"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40"/>
-      <c r="G40" s="4"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41"/>
-      <c r="G41" s="4"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42"/>
-      <c r="G42" s="4"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43"/>
-      <c r="G43" s="4"/>
-      <c r="H43"/>
+      <c r="F43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5947,7 +5404,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5976,7 +5433,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5984,7 +5441,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6005,10 +5462,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6018,14 +5475,12 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -6041,899 +5496,784 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="5">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13">
+      <c r="G13">
         <v>0.92865275142342796</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="7">
         <v>-79.674552083015399</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1">
         <v>44581</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="9">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9">
         <v>0.50694444444444442</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="9">
+        <v>96</v>
+      </c>
+      <c r="G19" s="9">
         <v>0.64722222222222225</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20">
+        <v>96</v>
+      </c>
+      <c r="G20">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
         <v>100</v>
       </c>
-      <c r="I22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="D26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="G33" s="4"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="G34" s="4"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="G35" s="4"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="G36" s="4"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37"/>
-      <c r="G37" s="4"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38"/>
-      <c r="G38" s="4"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39"/>
-      <c r="G39" s="4"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40"/>
-      <c r="G40" s="4"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41"/>
-      <c r="G41" s="4"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42"/>
-      <c r="G42" s="4"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43"/>
-      <c r="G43" s="4"/>
-      <c r="H43"/>
+      <c r="F43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="comparativo" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="197">
   <si>
     <t>variables</t>
   </si>
@@ -207,6 +207,12 @@
     <t>Fuente de Datos</t>
   </si>
   <si>
+    <t>Relaciones</t>
+  </si>
+  <si>
+    <t>Reglas de Calidad</t>
+  </si>
+  <si>
     <t>Clasificación</t>
   </si>
   <si>
@@ -312,6 +318,12 @@
     <t>Niveles administrativos de planificación desarrollados por SNP</t>
   </si>
   <si>
+    <t>Zona, Sub zona, Código subcircuito, Distrito, Circuito</t>
+  </si>
+  <si>
+    <t>Longitud latitud</t>
+  </si>
+  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -402,6 +414,12 @@
     <t>Tipo de vida silvestre rescatada si hay más de una</t>
   </si>
   <si>
+    <t>Fecha de operativo y hora de operativo</t>
+  </si>
+  <si>
+    <t>Sub categoría tipo I y tipo II</t>
+  </si>
+  <si>
     <t>2022012003322687102</t>
   </si>
   <si>
@@ -594,13 +612,19 @@
     <t>SAN CARLOS 1</t>
   </si>
   <si>
-    <t>Clasificación interna UPMA</t>
-  </si>
-  <si>
-    <t>Puede ser individuos, masa o volumen</t>
-  </si>
-  <si>
-    <t>No se especifica las unidades de medida de las coordenadas</t>
+    <t>Es un número de 1 hasta el número de casos</t>
+  </si>
+  <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
+  </si>
+  <si>
+    <t>Se debe especificar en que tipo de proyección se encuentra</t>
+  </si>
+  <si>
+    <t>Debe cumplir con un formato establecido</t>
+  </si>
+  <si>
+    <t>Cantidad, Medida</t>
   </si>
 </sst>
 </file>
@@ -631,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +671,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,6 +720,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1754,7 +1792,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1829,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,12 +1863,14 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1846,618 +1886,718 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10"/>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
         <v>0.14590130000000001</v>
       </c>
-      <c r="H13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
         <v>-76.878917700000002</v>
       </c>
-      <c r="H14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="1">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
         <v>45020</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="9">
+        <v>126</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9">
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="F35"/>
+      <c r="G35" s="4"/>
+      <c r="H35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2482,7 +2622,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2651,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2659,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,12 +2693,14 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -2574,623 +2716,724 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
         <v>2934</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10"/>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
         <v>-0.94476987124075795</v>
       </c>
-      <c r="H13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
         <v>-78.610455470991198</v>
       </c>
-      <c r="H14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="1">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
         <v>45545</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="9">
+        <v>126</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
         <v>136</v>
       </c>
-      <c r="H20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="F36"/>
+      <c r="G36" s="4"/>
+      <c r="H36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3215,7 +3458,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3487,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3495,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,10 +3516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,12 +3529,14 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -3307,556 +3552,635 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10"/>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
         <v>-79444899226349</v>
       </c>
-      <c r="H14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="1">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
         <v>43467</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43"/>
-      <c r="F43"/>
+      <c r="G43" s="4"/>
+      <c r="H43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3881,7 +4205,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3910,7 +4234,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3918,7 +4242,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3939,10 +4263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,12 +4276,14 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -3973,640 +4299,747 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10"/>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
         <v>0.91247652184898798</v>
       </c>
-      <c r="H13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
         <v>-78.545250891391404</v>
       </c>
-      <c r="H14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="1">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
         <v>44090</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="9">
+        <v>126</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="9">
         <v>0.65972222222222221</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9">
         <v>0.87569444444444444</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19">
+        <v>196</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19">
         <v>36</v>
       </c>
-      <c r="H19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43"/>
-      <c r="F43"/>
+      <c r="G43" s="4"/>
+      <c r="H43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4631,7 +5064,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +5093,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +5101,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4689,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,12 +5135,14 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -4723,663 +5158,771 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10"/>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
         <v>0.87904342401061197</v>
       </c>
-      <c r="H13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
         <v>-79.077787399292006</v>
       </c>
-      <c r="H14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="1">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
         <v>44379</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
         <v>48.6</v>
       </c>
-      <c r="H20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,2,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,2,FALSE)</f>
         <v>Unidad de medida de la cantidad de fauna silvestre rescatada</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,3,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,3,FALSE)</f>
         <v>Categórica</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,4,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,4,FALSE)</f>
         <v>No aplica</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,5,FALSE)</f>
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,5,FALSE)</f>
         <v>No aplica</v>
       </c>
-      <c r="F25" s="4" t="e">
-        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$F,8,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="4" t="str">
+        <f>VLOOKUP(A25,'16_4_diccionario'!$A:$H,8,FALSE)</f>
+        <v>Evento</v>
+      </c>
+      <c r="I25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43"/>
-      <c r="F43"/>
+      <c r="G43" s="4"/>
+      <c r="H43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5404,7 +5947,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5433,7 +5976,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5441,7 +5984,7 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5462,10 +6005,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,12 +6018,14 @@
     <col min="3" max="3" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -5496,784 +6041,899 @@
       <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10"/>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+      <c r="H11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
         <v>0.92865275142342796</v>
       </c>
-      <c r="H13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
         <v>-79.674552083015399</v>
       </c>
-      <c r="H14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="1">
+        <v>126</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1">
         <v>44581</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="9">
+        <v>126</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9">
         <v>0.50694444444444442</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="9">
+        <v>126</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9">
         <v>0.64722222222222225</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20">
         <v>7.7</v>
       </c>
-      <c r="H20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43"/>
-      <c r="F43"/>
+      <c r="G43" s="4"/>
+      <c r="H43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
